--- a/scripts/muiashley/Gradient boosting - sum_cleanup_funding results.xlsx
+++ b/scripts/muiashley/Gradient boosting - sum_cleanup_funding results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashmui\Documents\GitHub\Mar21-environmental-impact\scripts\muiashley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AEAE2C-BA5A-4C27-8049-BB4DFA400108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04790541-5DFD-4DDA-8E17-5F572EA000B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6795" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
